--- a/Data/EC/NIT-8904027668.xlsx
+++ b/Data/EC/NIT-8904027668.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363043AE-ADE3-4918-8746-37DCD25E8B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0BD2BA9-5639-4CB2-8068-CD2A151C02AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6332858-2D76-477A-AFBD-DF17C7C37EEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1B1E3BB-A51C-441D-A2FA-57FB65013FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,36 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45512995</t>
+  </si>
+  <si>
+    <t>DELSI GARCIA CARDENAS</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1041973787</t>
+  </si>
+  <si>
+    <t>JUAN DAVID GARCIA CORPUIS</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>30768990</t>
+  </si>
+  <si>
+    <t>ANA INES MARTINEZ GOMEZ</t>
+  </si>
+  <si>
     <t>73099881</t>
   </si>
   <si>
@@ -74,22 +104,106 @@
     <t>1610</t>
   </si>
   <si>
+    <t>1143327221</t>
+  </si>
+  <si>
+    <t>DARWIN MERCADO AYALA</t>
+  </si>
+  <si>
+    <t>1003561938</t>
+  </si>
+  <si>
+    <t>LILIANA PATRICIA RUENDES CORDOBA</t>
+  </si>
+  <si>
+    <t>45438934</t>
+  </si>
+  <si>
+    <t>MARICELA MIRANDA SANMARTIN</t>
+  </si>
+  <si>
+    <t>1002274744</t>
+  </si>
+  <si>
+    <t>YULIVEISI SALGADO CASSIANI</t>
+  </si>
+  <si>
     <t>1143391206</t>
   </si>
   <si>
     <t>LUIS CARLOS OCAMPO MARTINEZ</t>
   </si>
   <si>
+    <t>2504</t>
+  </si>
+  <si>
     <t>2408</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1043296605</t>
+  </si>
+  <si>
+    <t>SANTIAGO ENRIQUE MORENO CERVANTES</t>
+  </si>
+  <si>
+    <t>1002201211</t>
+  </si>
+  <si>
+    <t>CLARA ELVIRA VALDEZ AMADOR</t>
+  </si>
+  <si>
+    <t>1007170679</t>
+  </si>
+  <si>
+    <t>JAIRO MATOS BLANCO</t>
+  </si>
+  <si>
+    <t>1007256852</t>
+  </si>
+  <si>
+    <t>MELKIS DAVID HENAO TAPIA</t>
+  </si>
+  <si>
+    <t>1042579686</t>
+  </si>
+  <si>
+    <t>ERIKA PATRICIA MARTINEZ REYES</t>
+  </si>
+  <si>
+    <t>1048602487</t>
+  </si>
+  <si>
+    <t>ANGELYC PAOLA COTA ORTIZ</t>
+  </si>
+  <si>
+    <t>1193601641</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID TORRES LANS</t>
+  </si>
+  <si>
+    <t>1043642901</t>
+  </si>
+  <si>
+    <t>LUISA FERNANDA DIAZ BATISTA</t>
+  </si>
+  <si>
+    <t>1052740086</t>
+  </si>
+  <si>
+    <t>KARINA ISABEL OROZCO VASQUEZ</t>
+  </si>
+  <si>
+    <t>1043652650</t>
+  </si>
+  <si>
+    <t>MAIRU PAOLA MARQUEZ GARCIA</t>
+  </si>
+  <si>
+    <t>1047469498</t>
+  </si>
+  <si>
+    <t>MEIDIS CONTRERAS VILLA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC6F0BA-B65A-A1FC-EDCA-11C09D8E8A18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C207C0B-C009-7D32-6AE3-C11C3F5867B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,8 +968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F197FAC-453B-4501-BAB7-E71C66A6DD10}">
-  <dimension ref="B2:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279E4688-7EF7-4608-B865-95186288ED50}">
+  <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -866,7 +980,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -879,7 +993,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -924,7 +1038,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -956,12 +1070,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>756539</v>
+        <v>1354239</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -972,17 +1086,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1009,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,10 +1146,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24640</v>
+        <v>2477</v>
       </c>
       <c r="G16" s="18">
-        <v>616000</v>
+        <v>1858000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1046,19 +1160,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>15139</v>
+        <v>2477</v>
       </c>
       <c r="G17" s="18">
-        <v>5677000</v>
+        <v>1858000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1069,19 +1183,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>238920</v>
+        <v>2333</v>
       </c>
       <c r="G18" s="18">
-        <v>5677000</v>
+        <v>1858000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1092,75 +1206,604 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>238920</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>5677000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="F20" s="18">
+        <v>2515</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1886000</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="F21" s="18">
+        <v>2367</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1886000</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="18">
+        <v>24640</v>
+      </c>
+      <c r="G22" s="18">
+        <v>616000</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="18">
+        <v>2946</v>
+      </c>
+      <c r="G23" s="18">
+        <v>2209322</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2481</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1860888</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="18">
+        <v>2477</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1858000</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18">
         <v>238920</v>
       </c>
-      <c r="G20" s="24">
-        <v>5677000</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="H25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="G27" s="18">
+        <v>5973000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="18">
+        <v>238920</v>
+      </c>
+      <c r="G28" s="18">
+        <v>5973000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="18">
+        <v>238920</v>
+      </c>
+      <c r="G29" s="18">
+        <v>5973000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="18">
+        <v>238920</v>
+      </c>
+      <c r="G30" s="18">
+        <v>5973000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="18">
+        <v>15139</v>
+      </c>
+      <c r="G31" s="18">
+        <v>5973000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="18">
+        <v>2477</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1858000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="18">
+        <v>9490</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="18">
+        <v>9490</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="18">
+        <v>9490</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="18">
+        <v>11388</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="24">
+        <v>11388</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8904027668.xlsx
+++ b/Data/EC/NIT-8904027668.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0BD2BA9-5639-4CB2-8068-CD2A151C02AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{300992D4-6F38-443D-A140-81F032406D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1B1E3BB-A51C-441D-A2FA-57FB65013FB9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D21F6AE-1EB3-4F70-873C-9DB4E4F41D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,145 +65,37 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45512995</t>
-  </si>
-  <si>
-    <t>DELSI GARCIA CARDENAS</t>
+    <t>73099881</t>
+  </si>
+  <si>
+    <t>JAIME ENRIQUE BACA LORDUY</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1143391206</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS OCAMPO MARTINEZ</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1041973787</t>
-  </si>
-  <si>
-    <t>JUAN DAVID GARCIA CORPUIS</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>30768990</t>
-  </si>
-  <si>
-    <t>ANA INES MARTINEZ GOMEZ</t>
-  </si>
-  <si>
-    <t>73099881</t>
-  </si>
-  <si>
-    <t>JAIME ENRIQUE BACA LORDUY</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1143327221</t>
-  </si>
-  <si>
-    <t>DARWIN MERCADO AYALA</t>
-  </si>
-  <si>
-    <t>1003561938</t>
-  </si>
-  <si>
-    <t>LILIANA PATRICIA RUENDES CORDOBA</t>
-  </si>
-  <si>
-    <t>45438934</t>
-  </si>
-  <si>
-    <t>MARICELA MIRANDA SANMARTIN</t>
-  </si>
-  <si>
-    <t>1002274744</t>
-  </si>
-  <si>
-    <t>YULIVEISI SALGADO CASSIANI</t>
-  </si>
-  <si>
-    <t>1143391206</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS OCAMPO MARTINEZ</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1043296605</t>
-  </si>
-  <si>
-    <t>SANTIAGO ENRIQUE MORENO CERVANTES</t>
-  </si>
-  <si>
-    <t>1002201211</t>
-  </si>
-  <si>
-    <t>CLARA ELVIRA VALDEZ AMADOR</t>
-  </si>
-  <si>
-    <t>1007170679</t>
-  </si>
-  <si>
-    <t>JAIRO MATOS BLANCO</t>
-  </si>
-  <si>
-    <t>1007256852</t>
-  </si>
-  <si>
-    <t>MELKIS DAVID HENAO TAPIA</t>
-  </si>
-  <si>
-    <t>1042579686</t>
-  </si>
-  <si>
-    <t>ERIKA PATRICIA MARTINEZ REYES</t>
-  </si>
-  <si>
-    <t>1048602487</t>
-  </si>
-  <si>
-    <t>ANGELYC PAOLA COTA ORTIZ</t>
-  </si>
-  <si>
-    <t>1193601641</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID TORRES LANS</t>
-  </si>
-  <si>
-    <t>1043642901</t>
-  </si>
-  <si>
-    <t>LUISA FERNANDA DIAZ BATISTA</t>
-  </si>
-  <si>
-    <t>1052740086</t>
-  </si>
-  <si>
-    <t>KARINA ISABEL OROZCO VASQUEZ</t>
-  </si>
-  <si>
-    <t>1043652650</t>
-  </si>
-  <si>
-    <t>MAIRU PAOLA MARQUEZ GARCIA</t>
-  </si>
-  <si>
-    <t>1047469498</t>
-  </si>
-  <si>
-    <t>MEIDIS CONTRERAS VILLA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -302,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -517,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C207C0B-C009-7D32-6AE3-C11C3F5867B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA6DF33-C2F5-AFB5-B786-D0F8004B73DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279E4688-7EF7-4608-B865-95186288ED50}">
-  <dimension ref="B2:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D78DA0-7785-4EAB-AE8C-17B18136EF88}">
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -980,7 +872,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -993,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1038,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1070,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1354239</v>
+        <v>1234379</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1086,14 +978,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1123,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1146,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>2477</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
-        <v>1858000</v>
+        <v>616000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1160,19 +1052,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>2477</v>
+        <v>15139</v>
       </c>
       <c r="G17" s="18">
-        <v>1858000</v>
+        <v>5973000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1183,19 +1075,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>2333</v>
+        <v>238920</v>
       </c>
       <c r="G18" s="18">
-        <v>1858000</v>
+        <v>5973000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1206,19 +1098,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>238920</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>5973000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1229,19 +1121,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F20" s="18">
-        <v>2515</v>
+        <v>238920</v>
       </c>
       <c r="G20" s="18">
-        <v>1886000</v>
+        <v>5973000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1252,558 +1144,75 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="18">
-        <v>2367</v>
+        <v>238920</v>
       </c>
       <c r="G21" s="18">
-        <v>1886000</v>
+        <v>5973000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G22" s="18">
-        <v>616000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="18">
-        <v>2946</v>
-      </c>
-      <c r="G23" s="18">
-        <v>2209322</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="18">
-        <v>2481</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1860888</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="18">
-        <v>2477</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1858000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="F22" s="24">
+        <v>238920</v>
+      </c>
+      <c r="G22" s="24">
+        <v>5973000</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="18">
-        <v>238920</v>
-      </c>
-      <c r="G27" s="18">
-        <v>5973000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="18">
-        <v>238920</v>
-      </c>
-      <c r="G28" s="18">
-        <v>5973000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="18">
-        <v>238920</v>
-      </c>
-      <c r="G29" s="18">
-        <v>5973000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="18">
-        <v>238920</v>
-      </c>
-      <c r="G30" s="18">
-        <v>5973000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="18">
-        <v>15139</v>
-      </c>
-      <c r="G31" s="18">
-        <v>5973000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="18">
-        <v>2477</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1858000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="18">
-        <v>9490</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="18">
-        <v>9490</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="18">
-        <v>9490</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="18">
-        <v>11388</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="24">
-        <v>11388</v>
-      </c>
-      <c r="G43" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
